--- a/1_analysis/manual_plot/组态.xlsx
+++ b/1_analysis/manual_plot/组态.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezri/ezridb/forR/20250714_MPA_QCA/1_analysis/manual_plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA7C298-5AB4-224B-B83D-87C6AF972267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AD2DD8-6B17-214E-8B1B-7E8C9F173AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="32300" windowHeight="18460" activeTab="1" xr2:uid="{8604267B-1582-9548-9AB0-E29EB2750A1D}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="32300" windowHeight="18460" xr2:uid="{8604267B-1582-9548-9AB0-E29EB2750A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="res_2parsolM_order" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
   <si>
     <t>X1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,114 +54,34 @@
     <t>X9</t>
   </si>
   <si>
-    <t>组态2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组态3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>●</t>
   </si>
   <si>
     <t>U</t>
   </si>
   <si>
-    <t>一致性</t>
-  </si>
-  <si>
     <t>Proportional Reduction in Inconsistency (PRI) of the solution terms</t>
   </si>
   <si>
     <t>PRI</t>
   </si>
   <si>
-    <t>覆盖度</t>
-  </si>
-  <si>
-    <t>唯一覆盖度</t>
-  </si>
-  <si>
     <t>between consistency (BECONS) adjusted distance</t>
   </si>
   <si>
-    <t>组间一致性调整距离</t>
-  </si>
-  <si>
     <t>within consistency (WICONS) adjusted distance</t>
   </si>
   <si>
-    <t>组内一致性调整距离</t>
-  </si>
-  <si>
     <t xml:space="preserve">consistency score (inclS) of overall solution </t>
   </si>
   <si>
-    <t>总体一致性</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proportional Reduction in Inconsistency (PRI) of overall solution </t>
   </si>
   <si>
-    <t>总体PRI</t>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研发投入</t>
-  </si>
-  <si>
-    <t>研究与试验发展（R&amp;D)经费投入强度</t>
-  </si>
-  <si>
-    <t>政府引导基金</t>
-  </si>
-  <si>
-    <t>政府引导基金投资密度</t>
-  </si>
-  <si>
-    <t>上市公司年报财务报表附注“营业外收入”科目下“政府补助明细”</t>
-  </si>
-  <si>
-    <t>培养科技人员</t>
-  </si>
-  <si>
-    <t>研究与试验发展（R&amp;D)人员全时当量</t>
-  </si>
-  <si>
-    <t>培育创新型企业</t>
-  </si>
-  <si>
-    <t>高新技术企业数量</t>
-  </si>
-  <si>
-    <t>孵化基金支持</t>
-  </si>
-  <si>
-    <t>孵化基金总额</t>
-  </si>
-  <si>
-    <t>众创空间服务</t>
-  </si>
-  <si>
-    <t>创业团队、初创企业当年获得投融资总额</t>
-  </si>
-  <si>
-    <t>政府创新采购</t>
-  </si>
-  <si>
-    <t>政府单位创新采购数量对数</t>
-  </si>
-  <si>
-    <t>知识产权保护强度</t>
-  </si>
-  <si>
-    <t>技术市场交易额占GDP比值</t>
-  </si>
-  <si>
     <t xml:space="preserve">consistency score (inclS) of the solution terms	</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +129,6 @@
   </si>
   <si>
     <t>M2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体覆盖度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -262,14 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组态1a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组态1b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -278,20 +186,6 @@
   <si>
     <t>西藏_2016,山西_2017,内蒙古_2017,黑龙江_2017,海南_2017,西藏_2017,山西_2018,内蒙古_2018,黑龙江_2018,海南_2018,西藏_2018,新疆_2018,海南_2019,西藏_2019,新疆_2019,西藏_2020,新疆_2020,西藏_2021,新疆_2021,西藏_2022,新疆_2022,西藏_2023;宁夏_2019,海南_2020,宁夏_2020,山西_2021,吉林_2021,海南_2021,吉林_2022; 宁夏_2017,山西_2019,内蒙古_2019,广西_2019,青海_2019,内蒙古_2020,广西_2020,青海_2020,青海_2021,青海_2022,青海_2023;云南_2018,宁夏_2018,云南_2019,云南_2020,内蒙古_2021,宁夏_2021,云南_2022,宁夏_2022,云南_2023,宁夏_2023</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">风险承担者与投资者	</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险承担者与投资者</t>
-  </si>
-  <si>
-    <t>市场创造者和塑造者</t>
   </si>
   <si>
     <r>
@@ -491,22 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风险承担者与投资者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创新生态系统构建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场创造者和塑造者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府创新补助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,14 +406,6 @@
   </si>
   <si>
     <t>X8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域科技创新能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域创新能力效用值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -667,6 +537,652 @@
         <charset val="134"/>
       </rPr>
       <t>→Y</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1b</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>政府角色</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">风险承担者与投资者	</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研发投入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究与试验发展（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R&amp;D)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经费投入强度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险承担者与投资者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>政府引导基金投资密度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险承担者与投资者</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>政府创新补助</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上市公司年报财务报表附注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营业外收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科目下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>政府补助明细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场创造者和塑造者</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孵化基金支持</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孵化基金总额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场创造者和塑造者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>众创空间服务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创业团队、初创企业当年获得投融资总额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>政府创新采购</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>政府单位创新采购数量对数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创新生态系统构建者</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>培养科技人员</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究与试验发展（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R&amp;D)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人员全时当量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>培育创新型企业</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高新技术企业数量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知识产权保护强度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术市场交易额占</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GDP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一致性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>覆盖度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唯一覆盖度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组间一致性调整距离</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组内一致性调整距离</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总体一致性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PRI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总体覆盖度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>政府引导基金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,7 +1194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -696,35 +1212,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Wingdings 2"/>
       <charset val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF0432FF"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -743,26 +1233,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFC00000"/>
-      <name val="Wingdings 2"/>
-      <charset val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -778,25 +1254,71 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -857,125 +1379,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1320,499 +1846,557 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1">
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickTop="1">
-      <c r="A2" t="s">
+    <row r="1" spans="1:10" ht="17" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickTop="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25" customHeight="1">
+      <c r="A4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="H5" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="G9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="I2" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="25" customHeight="1">
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="C12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="G12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <v>0.99685480171037832</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.98678984073347176</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.99384227846087658</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17">
+        <v>0.98369724348282883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="D14" s="23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="25" customHeight="1">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="25" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="25" customHeight="1">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="25" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <v>0.99220058154383806</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.96719223648640185</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.97432146771347183</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17">
+        <v>0.96913673569809566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17">
+        <v>0.49383423991903552</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.52190357506525731</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.3526724673772943</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17">
+        <v>0.60970676731688356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <v>2.233054455194405E-2</v>
+      </c>
+      <c r="G16" s="17">
+        <v>9.5754170945603956E-2</v>
+      </c>
+      <c r="H16" s="17">
+        <v>3.027643724478923E-2</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17">
+        <v>2.9520335419263308E-3</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1.379322270815583E-2</v>
+      </c>
+      <c r="H17" s="17">
+        <v>6.6184605275815709E-3</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17">
+        <v>1.9319218268125871E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <v>2.3199143314488701E-2</v>
+      </c>
+      <c r="G18" s="17">
+        <v>5.136462914617717E-2</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2.5345489596466951E-2</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17">
+        <v>3.1983386925889992E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="39">
+        <v>0.98547774549460898</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17">
+        <v>0.98369724348282883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="39">
+        <v>0.964637475960332</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17">
+        <v>0.96913673569809566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="40">
+        <v>0.61986484810942799</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="18">
+        <v>0.60970676731688356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickTop="1"/>
+    <row r="23" spans="1:10">
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="23">
+      <c r="H28" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="25" customHeight="1">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="25" customHeight="1">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="25" customHeight="1">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="C13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.99685480171037832</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0.98678984073347176</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.99384227846087658</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.98369724348282883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.99220058154383806</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0.96719223648640185</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.97432146771347183</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.96913673569809566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.49383423991903552</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0.52190357506525731</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.3526724673772943</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.60970676731688356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2.233054455194405E-2</v>
-      </c>
-      <c r="F16" s="11">
-        <v>9.5754170945603956E-2</v>
-      </c>
-      <c r="G16" s="11">
-        <v>3.027643724478923E-2</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2.9520335419263308E-3</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1.379322270815583E-2</v>
-      </c>
-      <c r="G17" s="11">
-        <v>6.6184605275815709E-3</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1.9319218268125871E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2.3199143314488701E-2</v>
-      </c>
-      <c r="F18" s="11">
-        <v>5.136462914617717E-2</v>
-      </c>
-      <c r="G18" s="11">
-        <v>2.5345489596466951E-2</v>
-      </c>
-      <c r="I18" s="11">
-        <v>3.1983386925889992E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0.98547774549460898</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="I19" s="11">
-        <v>0.98369724348282883</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0.964637475960332</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="I20" s="11">
-        <v>0.96913673569809566</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="17" thickBot="1">
-      <c r="C21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="41">
-        <v>0.61986484810942799</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="I21" s="23">
-        <v>0.60970676731688356</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="17" thickTop="1"/>
-    <row r="23" spans="3:9">
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="21">
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="3:9" ht="23">
-      <c r="G28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="3:9" ht="23">
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="3:9" ht="23">
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="3:9" ht="23">
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="3:9" ht="23">
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="8:8" ht="23">
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="8:8" ht="23">
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="8:8" ht="23">
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="8:8" ht="23">
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="8:8" ht="23">
-      <c r="H37" s="15"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="23">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="23">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="23">
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="23">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="9:9" ht="23">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="9:9" ht="23">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="9:9" ht="23">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="9:9" ht="23">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="9:9" ht="23">
+      <c r="I37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1823,7 +2407,7 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1837,53 +2421,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="A1" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="24" customHeight="1" thickTop="1">
-      <c r="B3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>46</v>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="204">
       <c r="B4" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>0.99685480171037832</v>
@@ -1903,16 +2487,16 @@
       <c r="H4">
         <v>2.3199143314488701E-2</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>74</v>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="255">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0.98678984073347176</v>
@@ -1932,16 +2516,16 @@
       <c r="H5">
         <v>5.136462914617717E-2</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>75</v>
+      <c r="I5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="119">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>0.99384227846087658</v>
@@ -1961,76 +2545,76 @@
       <c r="H6">
         <v>2.5345489596466951E-2</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>73</v>
+      <c r="I6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.98547774549460898</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="1">
         <v>0.964637475960332</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="1">
         <v>0.61986484810942832</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickTop="1"/>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" thickBot="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" thickTop="1">
-      <c r="B11" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>46</v>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="187">
       <c r="B12" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>0.98369724348282883</v>
@@ -2047,30 +2631,30 @@
       <c r="H12">
         <v>3.1983386925889992E-2</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>78</v>
+      <c r="I12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B13" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="26">
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8">
         <v>0.98369724348282883</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="8">
         <v>0.96913673569809566</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="8">
         <v>0.60970676731688356</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickTop="1"/>
   </sheetData>
@@ -2099,84 +2683,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="A1" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="A2" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="17" thickTop="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>46</v>
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="85">
-      <c r="A5" s="8">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="12">
         <v>0.97599999999999998</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="12">
         <v>0.93700000000000006</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="12">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="12">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="12">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>61</v>
+      <c r="I5" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="119">
@@ -2184,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>0.98199999999999998</v>
@@ -2201,40 +2785,40 @@
       <c r="G6">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>62</v>
+      <c r="I6" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="119">
-      <c r="A7" s="8">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.98299999999999998</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="2">
         <v>0.96</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="2">
         <v>0.60799999999999998</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <v>0.17599999999999999</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>62</v>
+      <c r="I7" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="28" t="s">
-        <v>52</v>
+      <c r="B8" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C8">
         <v>0.96899999999999997</v>
@@ -2247,51 +2831,51 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" thickBot="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.97</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="1">
         <v>0.92700000000000005</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="1">
         <v>0.68799999999999994</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="17" thickTop="1"/>
     <row r="12" spans="1:9">
-      <c r="A12" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="8"/>
-      <c r="B15" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>45</v>
+      <c r="A15" s="2"/>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="102">
@@ -2299,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>0.96899999999999997</v>
@@ -2311,15 +2895,15 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>68</v>
+        <v>37</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>0.96899999999999997</v>
@@ -2339,5 +2923,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>